--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.196205</v>
+        <v>1.8274535</v>
       </c>
       <c r="H2">
-        <v>2.39241</v>
+        <v>3.654907</v>
       </c>
       <c r="I2">
-        <v>0.1612076625294354</v>
+        <v>0.1412565042610114</v>
       </c>
       <c r="J2">
-        <v>0.1197188969614126</v>
+        <v>0.1019486750811935</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.081504</v>
+        <v>11.4621665</v>
       </c>
       <c r="N2">
-        <v>50.163008</v>
+        <v>22.924333</v>
       </c>
       <c r="O2">
-        <v>0.6708018861614671</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P2">
-        <v>0.579958390249514</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q2">
-        <v>30.00262049232</v>
+        <v>20.94657628800775</v>
       </c>
       <c r="R2">
-        <v>120.01048196928</v>
+        <v>83.78630515203101</v>
       </c>
       <c r="S2">
-        <v>0.1081384040884265</v>
+        <v>0.1333617660587391</v>
       </c>
       <c r="T2">
-        <v>0.06943197876418827</v>
+        <v>0.09502189741147475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.196205</v>
+        <v>1.8274535</v>
       </c>
       <c r="H3">
-        <v>2.39241</v>
+        <v>3.654907</v>
       </c>
       <c r="I3">
-        <v>0.1612076625294354</v>
+        <v>0.1412565042610114</v>
       </c>
       <c r="J3">
-        <v>0.1197188969614126</v>
+        <v>0.1019486750811935</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.008398811455623191</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P3">
-        <v>0.0108921007952561</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q3">
-        <v>0.375649439705</v>
+        <v>0.5738831415701667</v>
       </c>
       <c r="R3">
-        <v>2.25389663823</v>
+        <v>3.443298849421</v>
       </c>
       <c r="S3">
-        <v>0.001353952762786459</v>
+        <v>0.003653774641679835</v>
       </c>
       <c r="T3">
-        <v>0.001303990292800585</v>
+        <v>0.003905039008857645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.196205</v>
+        <v>1.8274535</v>
       </c>
       <c r="H4">
-        <v>2.39241</v>
+        <v>3.654907</v>
       </c>
       <c r="I4">
-        <v>0.1612076625294354</v>
+        <v>0.1412565042610114</v>
       </c>
       <c r="J4">
-        <v>0.1197188969614126</v>
+        <v>0.1019486750811935</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5953364999999999</v>
+        <v>0.364502</v>
       </c>
       <c r="N4">
-        <v>1.190673</v>
+        <v>0.729004</v>
       </c>
       <c r="O4">
-        <v>0.01592220494834625</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P4">
-        <v>0.01376593677144639</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q4">
-        <v>0.7121444979824999</v>
+        <v>0.666110455657</v>
       </c>
       <c r="R4">
-        <v>2.84857799193</v>
+        <v>2.664441822628</v>
       </c>
       <c r="S4">
-        <v>0.002566781442037508</v>
+        <v>0.004240963560592366</v>
       </c>
       <c r="T4">
-        <v>0.001648042765918111</v>
+        <v>0.003021738660861135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.196205</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H5">
-        <v>2.39241</v>
+        <v>3.138983</v>
       </c>
       <c r="I5">
-        <v>0.1612076625294354</v>
+        <v>0.08087789292855554</v>
       </c>
       <c r="J5">
-        <v>0.1197188969614126</v>
+        <v>0.08755767464189652</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.39945533333333</v>
+        <v>11.4621665</v>
       </c>
       <c r="N5">
-        <v>34.198366</v>
+        <v>22.924333</v>
       </c>
       <c r="O5">
-        <v>0.3048770974345635</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P5">
-        <v>0.3953835721837836</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q5">
-        <v>13.63608546701</v>
+        <v>11.99318192888983</v>
       </c>
       <c r="R5">
-        <v>81.81651280206</v>
+        <v>71.95909157333901</v>
       </c>
       <c r="S5">
-        <v>0.04914852423618491</v>
+        <v>0.07635767777554199</v>
       </c>
       <c r="T5">
-        <v>0.04733488513850562</v>
+        <v>0.08160867584383494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>3.138983</v>
       </c>
       <c r="I6">
-        <v>0.1410093064175552</v>
+        <v>0.08087789292855554</v>
       </c>
       <c r="J6">
-        <v>0.1570782526158249</v>
+        <v>0.08755767464189652</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>25.081504</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N6">
-        <v>50.163008</v>
+        <v>0.942103</v>
       </c>
       <c r="O6">
-        <v>0.6708018861614671</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P6">
-        <v>0.579958390249514</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q6">
-        <v>26.24347155681067</v>
+        <v>0.328582811249889</v>
       </c>
       <c r="R6">
-        <v>157.460829340864</v>
+        <v>2.957245301249</v>
       </c>
       <c r="S6">
-        <v>0.09458930871121626</v>
+        <v>0.002092006989701625</v>
       </c>
       <c r="T6">
-        <v>0.09109885053028036</v>
+        <v>0.003353806557360009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>3.138983</v>
       </c>
       <c r="I7">
-        <v>0.1410093064175552</v>
+        <v>0.08087789292855554</v>
       </c>
       <c r="J7">
-        <v>0.1570782526158249</v>
+        <v>0.08755767464189652</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3140343333333334</v>
+        <v>0.364502</v>
       </c>
       <c r="N7">
-        <v>0.942103</v>
+        <v>0.729004</v>
       </c>
       <c r="O7">
-        <v>0.008398811455623191</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P7">
-        <v>0.0108921007952561</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q7">
-        <v>0.328582811249889</v>
+        <v>0.3813885271553333</v>
       </c>
       <c r="R7">
-        <v>2.957245301249</v>
+        <v>2.288331162932</v>
       </c>
       <c r="S7">
-        <v>0.001184310578089243</v>
+        <v>0.002428208163311936</v>
       </c>
       <c r="T7">
-        <v>0.001710912160234265</v>
+        <v>0.002595192240701574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.046327666666667</v>
+        <v>1.603851666666667</v>
       </c>
       <c r="H8">
-        <v>3.138983</v>
+        <v>4.811555</v>
       </c>
       <c r="I8">
-        <v>0.1410093064175552</v>
+        <v>0.1239727740194375</v>
       </c>
       <c r="J8">
-        <v>0.1570782526158249</v>
+        <v>0.1342118027436244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,42 +933,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5953364999999999</v>
+        <v>11.4621665</v>
       </c>
       <c r="N8">
-        <v>1.190673</v>
+        <v>22.924333</v>
       </c>
       <c r="O8">
-        <v>0.01592220494834625</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P8">
-        <v>0.01376593677144639</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q8">
-        <v>0.6229170509265</v>
+        <v>18.38361484463583</v>
       </c>
       <c r="R8">
-        <v>3.737502305559</v>
+        <v>110.301689067815</v>
       </c>
       <c r="S8">
-        <v>0.002245179076404469</v>
+        <v>0.1170440127548629</v>
       </c>
       <c r="T8">
-        <v>0.00216232929367873</v>
+        <v>0.1250929464415013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.046327666666667</v>
+        <v>1.603851666666667</v>
       </c>
       <c r="H9">
-        <v>3.138983</v>
+        <v>4.811555</v>
       </c>
       <c r="I9">
-        <v>0.1410093064175552</v>
+        <v>0.1239727740194375</v>
       </c>
       <c r="J9">
-        <v>0.1570782526158249</v>
+        <v>0.1342118027436244</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.39945533333333</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N9">
-        <v>34.198366</v>
+        <v>0.942103</v>
       </c>
       <c r="O9">
-        <v>0.3048770974345635</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P9">
-        <v>0.3953835721837836</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q9">
-        <v>11.92756550019756</v>
+        <v>0.5036644889072223</v>
       </c>
       <c r="R9">
-        <v>107.348089501778</v>
+        <v>4.532980400165</v>
       </c>
       <c r="S9">
-        <v>0.04299050805184519</v>
+        <v>0.00320670952704548</v>
       </c>
       <c r="T9">
-        <v>0.06210616063163162</v>
+        <v>0.005140844888327951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.404926333333333</v>
+        <v>1.603851666666667</v>
       </c>
       <c r="H10">
-        <v>4.214779</v>
+        <v>4.811555</v>
       </c>
       <c r="I10">
-        <v>0.189336184201468</v>
+        <v>0.1239727740194375</v>
       </c>
       <c r="J10">
-        <v>0.2109122988183988</v>
+        <v>0.1342118027436244</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.081504</v>
+        <v>0.364502</v>
       </c>
       <c r="N10">
-        <v>50.163008</v>
+        <v>0.729004</v>
       </c>
       <c r="O10">
-        <v>0.6708018861614671</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P10">
-        <v>0.579958390249514</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q10">
-        <v>35.23766544920533</v>
+        <v>0.5846071402033334</v>
       </c>
       <c r="R10">
-        <v>211.425992695232</v>
+        <v>3.50764284122</v>
       </c>
       <c r="S10">
-        <v>0.1270070694809597</v>
+        <v>0.003722051737529118</v>
       </c>
       <c r="T10">
-        <v>0.1223203573065431</v>
+        <v>0.003978011413795125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.404926333333333</v>
+        <v>1.13347</v>
       </c>
       <c r="H11">
-        <v>4.214779</v>
+        <v>2.26694</v>
       </c>
       <c r="I11">
-        <v>0.189336184201468</v>
+        <v>0.08761372581284751</v>
       </c>
       <c r="J11">
-        <v>0.2109122988183988</v>
+        <v>0.06323321755890392</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3140343333333334</v>
+        <v>11.4621665</v>
       </c>
       <c r="N11">
-        <v>0.942103</v>
+        <v>22.924333</v>
       </c>
       <c r="O11">
-        <v>0.008398811455623191</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P11">
-        <v>0.0108921007952561</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q11">
-        <v>0.4411951044707778</v>
+        <v>12.992021862755</v>
       </c>
       <c r="R11">
-        <v>3.970755940237</v>
+        <v>51.96808745102</v>
       </c>
       <c r="S11">
-        <v>0.001590198912835272</v>
+        <v>0.08271704914767958</v>
       </c>
       <c r="T11">
-        <v>0.002297278017689174</v>
+        <v>0.05893691415895631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.404926333333333</v>
+        <v>1.13347</v>
       </c>
       <c r="H12">
-        <v>4.214779</v>
+        <v>2.26694</v>
       </c>
       <c r="I12">
-        <v>0.189336184201468</v>
+        <v>0.08761372581284751</v>
       </c>
       <c r="J12">
-        <v>0.2109122988183988</v>
+        <v>0.06323321755890392</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5953364999999999</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N12">
-        <v>1.190673</v>
+        <v>0.942103</v>
       </c>
       <c r="O12">
-        <v>0.01592220494834625</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P12">
-        <v>0.01376593677144639</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q12">
-        <v>0.8364039260444999</v>
+        <v>0.3559484958033334</v>
       </c>
       <c r="R12">
-        <v>5.018423556267</v>
+        <v>2.13569097482</v>
       </c>
       <c r="S12">
-        <v>0.003014649528993611</v>
+        <v>0.002266237659729696</v>
       </c>
       <c r="T12">
-        <v>0.002903405369854486</v>
+        <v>0.00242208327892878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.404926333333333</v>
+        <v>1.13347</v>
       </c>
       <c r="H13">
-        <v>4.214779</v>
+        <v>2.26694</v>
       </c>
       <c r="I13">
-        <v>0.189336184201468</v>
+        <v>0.08761372581284751</v>
       </c>
       <c r="J13">
-        <v>0.2109122988183988</v>
+        <v>0.06323321755890392</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.39945533333333</v>
+        <v>0.364502</v>
       </c>
       <c r="N13">
-        <v>34.198366</v>
+        <v>0.729004</v>
       </c>
       <c r="O13">
-        <v>0.3048770974345635</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P13">
-        <v>0.3953835721837836</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q13">
-        <v>16.01539498345711</v>
+        <v>0.41315208194</v>
       </c>
       <c r="R13">
-        <v>144.138554851114</v>
+        <v>1.65260832776</v>
       </c>
       <c r="S13">
-        <v>0.05772426627867944</v>
+        <v>0.002630439005438239</v>
       </c>
       <c r="T13">
-        <v>0.08339125812431213</v>
+        <v>0.001874220121018823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0810545</v>
+        <v>6.232073666666666</v>
       </c>
       <c r="H14">
-        <v>2.162109</v>
+        <v>18.696221</v>
       </c>
       <c r="I14">
-        <v>0.1456892999209396</v>
+        <v>0.4817200221239208</v>
       </c>
       <c r="J14">
-        <v>0.108194374956777</v>
+        <v>0.5215057346124503</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.081504</v>
+        <v>11.4621665</v>
       </c>
       <c r="N14">
-        <v>50.163008</v>
+        <v>22.924333</v>
       </c>
       <c r="O14">
-        <v>0.6708018861614671</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P14">
-        <v>0.579958390249514</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q14">
-        <v>27.114472765968</v>
+        <v>71.43306600759882</v>
       </c>
       <c r="R14">
-        <v>108.457891063872</v>
+        <v>428.5983960455929</v>
       </c>
       <c r="S14">
-        <v>0.09772865718050994</v>
+        <v>0.4547969895785741</v>
       </c>
       <c r="T14">
-        <v>0.06274823553398472</v>
+        <v>0.4860726671962541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0810545</v>
+        <v>6.232073666666666</v>
       </c>
       <c r="H15">
-        <v>2.162109</v>
+        <v>18.696221</v>
       </c>
       <c r="I15">
-        <v>0.1456892999209396</v>
+        <v>0.4817200221239208</v>
       </c>
       <c r="J15">
-        <v>0.108194374956777</v>
+        <v>0.5215057346124503</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,27 +1373,27 @@
         <v>0.942103</v>
       </c>
       <c r="O15">
-        <v>0.008398811455623191</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P15">
-        <v>0.0108921007952561</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q15">
-        <v>0.3394882292045001</v>
+        <v>1.957085099195889</v>
       </c>
       <c r="R15">
-        <v>2.036929375227</v>
+        <v>17.613765892763</v>
       </c>
       <c r="S15">
-        <v>0.00122361696113771</v>
+        <v>0.01246028570814378</v>
       </c>
       <c r="T15">
-        <v>0.001178464037508947</v>
+        <v>0.01997574010042485</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0810545</v>
+        <v>6.232073666666666</v>
       </c>
       <c r="H16">
-        <v>2.162109</v>
+        <v>18.696221</v>
       </c>
       <c r="I16">
-        <v>0.1456892999209396</v>
+        <v>0.4817200221239208</v>
       </c>
       <c r="J16">
-        <v>0.108194374956777</v>
+        <v>0.5215057346124503</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5953364999999999</v>
+        <v>0.364502</v>
       </c>
       <c r="N16">
-        <v>1.190673</v>
+        <v>0.729004</v>
       </c>
       <c r="O16">
-        <v>0.01592220494834625</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P16">
-        <v>0.01376593677144639</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q16">
-        <v>0.6435912023392499</v>
+        <v>2.271603315647333</v>
       </c>
       <c r="R16">
-        <v>2.574364809357</v>
+        <v>13.629619893884</v>
       </c>
       <c r="S16">
-        <v>0.002319694892122285</v>
+        <v>0.01446274683720302</v>
       </c>
       <c r="T16">
-        <v>0.001489396924681155</v>
+        <v>0.01545732731577133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0810545</v>
+        <v>1.093951666666667</v>
       </c>
       <c r="H17">
-        <v>2.162109</v>
+        <v>3.281855</v>
       </c>
       <c r="I17">
-        <v>0.1456892999209396</v>
+        <v>0.0845590808542272</v>
       </c>
       <c r="J17">
-        <v>0.108194374956777</v>
+        <v>0.09154289536193135</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.39945533333333</v>
+        <v>11.4621665</v>
       </c>
       <c r="N17">
-        <v>34.198366</v>
+        <v>22.924333</v>
       </c>
       <c r="O17">
-        <v>0.3048770974345635</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P17">
-        <v>0.3953835721837836</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q17">
-        <v>12.323432485649</v>
+        <v>12.53905614628583</v>
       </c>
       <c r="R17">
-        <v>73.940594913894</v>
+        <v>75.23433687771501</v>
       </c>
       <c r="S17">
-        <v>0.04441733088716964</v>
+        <v>0.07983312639668687</v>
       </c>
       <c r="T17">
-        <v>0.04277827846060218</v>
+        <v>0.08532312563064819</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.022419333333333</v>
+        <v>1.093951666666667</v>
       </c>
       <c r="H18">
-        <v>3.067258</v>
+        <v>3.281855</v>
       </c>
       <c r="I18">
-        <v>0.1377872779762418</v>
+        <v>0.0845590808542272</v>
       </c>
       <c r="J18">
-        <v>0.153489052652375</v>
+        <v>0.09154289536193135</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>25.081504</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N18">
-        <v>50.163008</v>
+        <v>0.942103</v>
       </c>
       <c r="O18">
-        <v>0.6708018861614671</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P18">
-        <v>0.579958390249514</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q18">
-        <v>25.64381459867733</v>
+        <v>0.3435383823405556</v>
       </c>
       <c r="R18">
-        <v>153.862887592064</v>
+        <v>3.091845441065</v>
       </c>
       <c r="S18">
-        <v>0.09242796595551737</v>
+        <v>0.002187225480095696</v>
       </c>
       <c r="T18">
-        <v>0.08901726389719429</v>
+        <v>0.003506456332928446</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.022419333333333</v>
+        <v>1.093951666666667</v>
       </c>
       <c r="H19">
-        <v>3.067258</v>
+        <v>3.281855</v>
       </c>
       <c r="I19">
-        <v>0.1377872779762418</v>
+        <v>0.0845590808542272</v>
       </c>
       <c r="J19">
-        <v>0.153489052652375</v>
+        <v>0.09154289536193135</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3140343333333334</v>
+        <v>0.364502</v>
       </c>
       <c r="N19">
-        <v>0.942103</v>
+        <v>0.729004</v>
       </c>
       <c r="O19">
-        <v>0.008398811455623191</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P19">
-        <v>0.0108921007952561</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q19">
-        <v>0.3210747737304445</v>
+        <v>0.3987475704033333</v>
       </c>
       <c r="R19">
-        <v>2.889672963574</v>
+        <v>2.39248542242</v>
       </c>
       <c r="S19">
-        <v>0.001157249368705997</v>
+        <v>0.002538728977444635</v>
       </c>
       <c r="T19">
-        <v>0.001671818232458038</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.022419333333333</v>
-      </c>
-      <c r="H20">
-        <v>3.067258</v>
-      </c>
-      <c r="I20">
-        <v>0.1377872779762418</v>
-      </c>
-      <c r="J20">
-        <v>0.153489052652375</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.5953364999999999</v>
-      </c>
-      <c r="N20">
-        <v>1.190673</v>
-      </c>
-      <c r="O20">
-        <v>0.01592220494834625</v>
-      </c>
-      <c r="P20">
-        <v>0.01376593677144639</v>
-      </c>
-      <c r="Q20">
-        <v>0.608683547439</v>
-      </c>
-      <c r="R20">
-        <v>3.652101284634</v>
-      </c>
-      <c r="S20">
-        <v>0.002193877279212477</v>
-      </c>
-      <c r="T20">
-        <v>0.0021129205939218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.022419333333333</v>
-      </c>
-      <c r="H21">
-        <v>3.067258</v>
-      </c>
-      <c r="I21">
-        <v>0.1377872779762418</v>
-      </c>
-      <c r="J21">
-        <v>0.153489052652375</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.39945533333333</v>
-      </c>
-      <c r="N21">
-        <v>34.198366</v>
-      </c>
-      <c r="O21">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="P21">
-        <v>0.3953835721837836</v>
-      </c>
-      <c r="Q21">
-        <v>11.65502352226978</v>
-      </c>
-      <c r="R21">
-        <v>104.895211700428</v>
-      </c>
-      <c r="S21">
-        <v>0.04200818537280596</v>
-      </c>
-      <c r="T21">
-        <v>0.06068704992880086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.669341</v>
-      </c>
-      <c r="H22">
-        <v>5.008023</v>
-      </c>
-      <c r="I22">
-        <v>0.22497026895436</v>
-      </c>
-      <c r="J22">
-        <v>0.2506071239952117</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>25.081504</v>
-      </c>
-      <c r="N22">
-        <v>50.163008</v>
-      </c>
-      <c r="O22">
-        <v>0.6708018861614671</v>
-      </c>
-      <c r="P22">
-        <v>0.579958390249514</v>
-      </c>
-      <c r="Q22">
-        <v>41.86958296886399</v>
-      </c>
-      <c r="R22">
-        <v>251.217497813184</v>
-      </c>
-      <c r="S22">
-        <v>0.1509104807448372</v>
-      </c>
-      <c r="T22">
-        <v>0.1453417042173233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.669341</v>
-      </c>
-      <c r="H23">
-        <v>5.008023</v>
-      </c>
-      <c r="I23">
-        <v>0.22497026895436</v>
-      </c>
-      <c r="J23">
-        <v>0.2506071239952117</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.3140343333333334</v>
-      </c>
-      <c r="N23">
-        <v>0.942103</v>
-      </c>
-      <c r="O23">
-        <v>0.008398811455623191</v>
-      </c>
-      <c r="P23">
-        <v>0.0108921007952561</v>
-      </c>
-      <c r="Q23">
-        <v>0.5242303880410001</v>
-      </c>
-      <c r="R23">
-        <v>4.718073492369</v>
-      </c>
-      <c r="S23">
-        <v>0.001889482872068509</v>
-      </c>
-      <c r="T23">
-        <v>0.002729638054565089</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.669341</v>
-      </c>
-      <c r="H24">
-        <v>5.008023</v>
-      </c>
-      <c r="I24">
-        <v>0.22497026895436</v>
-      </c>
-      <c r="J24">
-        <v>0.2506071239952117</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.5953364999999999</v>
-      </c>
-      <c r="N24">
-        <v>1.190673</v>
-      </c>
-      <c r="O24">
-        <v>0.01592220494834625</v>
-      </c>
-      <c r="P24">
-        <v>0.01376593677144639</v>
-      </c>
-      <c r="Q24">
-        <v>0.9938196282464998</v>
-      </c>
-      <c r="R24">
-        <v>5.962917769478999</v>
-      </c>
-      <c r="S24">
-        <v>0.003582022729575897</v>
-      </c>
-      <c r="T24">
-        <v>0.00344984182339211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.669341</v>
-      </c>
-      <c r="H25">
-        <v>5.008023</v>
-      </c>
-      <c r="I25">
-        <v>0.22497026895436</v>
-      </c>
-      <c r="J25">
-        <v>0.2506071239952117</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.39945533333333</v>
-      </c>
-      <c r="N25">
-        <v>34.198366</v>
-      </c>
-      <c r="O25">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="P25">
-        <v>0.3953835721837836</v>
-      </c>
-      <c r="Q25">
-        <v>19.029578165602</v>
-      </c>
-      <c r="R25">
-        <v>171.266203490418</v>
-      </c>
-      <c r="S25">
-        <v>0.06858828260787839</v>
-      </c>
-      <c r="T25">
-        <v>0.09908593989993117</v>
+        <v>0.002713313398354711</v>
       </c>
     </row>
   </sheetData>
